--- a/app/data/2023-07-20/VENDASDUSNEI0022023-07-20.xlsx
+++ b/app/data/2023-07-20/VENDASDUSNEI0022023-07-20.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1448,7 +1448,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>40224</t>
+          <t>75198</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1458,29 +1458,29 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>30.00</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>378.00</t>
+          <t>189.00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2023-07-17</t>
+          <t>2023-07-20</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1108102</t>
+          <t>1108734</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>37739</t>
+          <t>72109</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1500,19 +1500,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2023-07-17</t>
+          <t>2023-07-20</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>1108110</t>
+          <t>1108721</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>10944</t>
+          <t>40224</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1522,29 +1522,29 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>30.00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>189.00</t>
+          <t>378.00</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2023-07-18</t>
+          <t>2023-07-17</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>1108170</t>
+          <t>1108102</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>48092</t>
+          <t>37739</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1554,29 +1554,29 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>30.00</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>359.80</t>
+          <t>189.00</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2023-07-18</t>
+          <t>2023-07-17</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>1108270</t>
+          <t>1108110</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>49642</t>
+          <t>10944</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>187.00</t>
+          <t>189.00</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1601,14 +1601,14 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>1108342</t>
+          <t>1108170</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>13424</t>
+          <t>48092</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1618,12 +1618,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>30.00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>179.00</t>
+          <t>359.80</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1633,14 +1633,14 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>1108348</t>
+          <t>1108270</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>10758</t>
+          <t>49642</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1655,24 +1655,24 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>187.35</t>
+          <t>187.00</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2023-07-19</t>
+          <t>2023-07-18</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>1108504</t>
+          <t>1108342</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>76156</t>
+          <t>13424</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1682,76 +1682,76 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>30.00</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>374.70</t>
+          <t>179.00</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2023-07-19</t>
+          <t>2023-07-18</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>1108547</t>
+          <t>1108348</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>46097</t>
+          <t>10758</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>18619</t>
+          <t>15911</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>9.60</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>229.00</t>
+          <t>187.35</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2023-07-18</t>
+          <t>2023-07-19</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>1108212</t>
+          <t>1108504</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>75730</t>
+          <t>76156</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>18619</t>
+          <t>15911</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>9.60</t>
+          <t>30.00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>238.40</t>
+          <t>374.70</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1761,14 +1761,14 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>1108621</t>
+          <t>1108547</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>68730</t>
+          <t>46097</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1783,24 +1783,24 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>262.40</t>
+          <t>229.00</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2023-07-19</t>
+          <t>2023-07-18</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>1108631</t>
+          <t>1108212</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>68390</t>
+          <t>75730</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1815,7 +1815,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>262.40</t>
+          <t>238.40</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1825,29 +1825,29 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>1108632</t>
+          <t>1108621</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>10931</t>
+          <t>68730</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>18554</t>
+          <t>18619</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>9.60</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>205.00</t>
+          <t>262.40</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1857,29 +1857,29 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>1108431</t>
+          <t>1108631</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>75730</t>
+          <t>68390</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>18554</t>
+          <t>18619</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>9.60</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>220.00</t>
+          <t>262.40</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1889,14 +1889,14 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>1108621</t>
+          <t>1108632</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>74071</t>
+          <t>10931</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1906,12 +1906,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>30.00</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>440.00</t>
+          <t>205.00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1921,29 +1921,29 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>1108633</t>
+          <t>1108431</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>70289</t>
+          <t>75730</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>18562</t>
+          <t>18554</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>169.00</t>
+          <t>220.00</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1953,29 +1953,29 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>1108622</t>
+          <t>1108621</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>70025</t>
+          <t>74071</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>18562</t>
+          <t>18554</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>16.00</t>
+          <t>30.00</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>338.00</t>
+          <t>440.00</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1985,29 +1985,29 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>1108630</t>
+          <t>1108633</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>70025</t>
+          <t>70289</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>18597</t>
+          <t>18562</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>40.00</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1095.60</t>
+          <t>169.00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2017,29 +2017,29 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>1108630</t>
+          <t>1108622</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>68730</t>
+          <t>70025</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>18597</t>
+          <t>18562</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>16.00</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>219.00</t>
+          <t>338.00</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2049,14 +2049,14 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>1108631</t>
+          <t>1108630</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>68390</t>
+          <t>70025</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2066,12 +2066,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>40.00</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>219.00</t>
+          <t>1095.60</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2081,61 +2081,61 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>1108632</t>
+          <t>1108630</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>39162</t>
+          <t>68730</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>18570</t>
+          <t>18597</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>8.80</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>199.00</t>
+          <t>219.00</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2023-07-18</t>
+          <t>2023-07-19</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>1108372</t>
+          <t>1108631</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>12876</t>
+          <t>68390</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>18570</t>
+          <t>18597</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>8.80</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>198.00</t>
+          <t>219.00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2145,14 +2145,14 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>1108530</t>
+          <t>1108632</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>75730</t>
+          <t>39162</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2167,47 +2167,111 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>202.40</t>
+          <t>199.00</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2023-07-19</t>
+          <t>2023-07-18</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>1108621</t>
+          <t>1108372</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
+          <t>12876</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>18570</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>198.00</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>2023-07-19</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1108530</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>75730</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>18570</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>202.40</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>2023-07-19</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1108621</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
           <t>70025</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B58" t="inlineStr">
         <is>
           <t>18570</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>61.60</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>1393.70</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>2023-07-19</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>2023-07-19</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
         <is>
           <t>1108630</t>
         </is>
